--- a/netflixEdited.xlsx
+++ b/netflixEdited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3jerr\Documents\School\3A BME\CS360 Intro to Database\Term Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8310B7B6-7F21-4CDC-AF88-EA38E10AA17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214CB4A-38AF-4527-B116-9971C2784450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9E50DAE2-31D6-4E78-AEF0-FB4BD4DFFCB0}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H200"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2">
         <v>2016</v>
